--- a/L2/作业/result.xlsx
+++ b/L2/作业/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>SimpleTagBased</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>NormTagBased-2</t>
+  </si>
+  <si>
+    <t>TagBased-TFIDF</t>
   </si>
   <si>
     <t>N</t>
@@ -1053,18 +1056,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="35" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="35" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1078,31 +1081,41 @@
         <v>2</v>
       </c>
       <c r="G1" s="4"/>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4"/>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
+    <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
+    <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="4">
         <v>5</v>
       </c>
@@ -1119,13 +1132,19 @@
         <v>0.00394</v>
       </c>
       <c r="F3" s="5">
+        <v>0.00885</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.00375</v>
+      </c>
+      <c r="H3" s="5">
         <v>0.0093</v>
       </c>
-      <c r="G3" s="5">
+      <c r="I3" s="5">
         <v>0.00394</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
+    <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="4">
         <v>10</v>
       </c>
@@ -1142,13 +1161,19 @@
         <v>0.00584</v>
       </c>
       <c r="F4" s="5">
-        <v>0.00689</v>
+        <v>0.00622</v>
       </c>
       <c r="G4" s="5">
-        <v>0.00584</v>
+        <v>0.00527</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.00711</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.00602</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
+    <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="4">
         <v>20</v>
       </c>
@@ -1165,13 +1190,19 @@
         <v>0.0084</v>
       </c>
       <c r="F5" s="5">
-        <v>0.00496</v>
+        <v>0.00479</v>
       </c>
       <c r="G5" s="5">
-        <v>0.0084</v>
+        <v>0.00811</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.00574</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.00973</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="4">
         <v>40</v>
       </c>
@@ -1188,13 +1219,19 @@
         <v>0.01243</v>
       </c>
       <c r="F6" s="5">
-        <v>0.00367</v>
+        <v>0.00345</v>
       </c>
       <c r="G6" s="5">
-        <v>0.01243</v>
+        <v>0.01167</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.00401</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.01357</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
+    <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="4">
         <v>60</v>
       </c>
@@ -1211,13 +1248,19 @@
         <v>0.01618</v>
       </c>
       <c r="F7" s="5">
-        <v>0.00318</v>
+        <v>0.00285</v>
       </c>
       <c r="G7" s="5">
-        <v>0.01618</v>
+        <v>0.01447</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.00337</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.01713</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:7">
+    <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="4">
         <v>80</v>
       </c>
@@ -1234,13 +1277,19 @@
         <v>0.01926</v>
       </c>
       <c r="F8" s="5">
-        <v>0.00284</v>
+        <v>0.00249</v>
       </c>
       <c r="G8" s="5">
-        <v>0.01926</v>
+        <v>0.01684</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.00303</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.02054</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:7">
+    <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="4">
         <v>100</v>
       </c>
@@ -1257,17 +1306,24 @@
         <v>0.02106</v>
       </c>
       <c r="F9" s="5">
-        <v>0.00249</v>
+        <v>0.0023</v>
       </c>
       <c r="G9" s="5">
-        <v>0.02106</v>
+        <v>0.01945</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.00269</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.02277</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
